--- a/data/Spreadsheet_Data/Originals.xlsx
+++ b/data/Spreadsheet_Data/Originals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9A9252-1698-E946-A49D-03AE8F808F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C96A654-F430-1E4F-A9D9-D5D906EC16D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26080" yWindow="9320" windowWidth="29360" windowHeight="17420" xr2:uid="{7BD0A2E7-6474-8D4B-AB32-BE85F237C272}"/>
+    <workbookView xWindow="47360" yWindow="500" windowWidth="29360" windowHeight="17420" xr2:uid="{7BD0A2E7-6474-8D4B-AB32-BE85F237C272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -70,13 +70,40 @@
     <t>O_009</t>
   </si>
   <si>
-    <t>O_010</t>
-  </si>
-  <si>
-    <t>O_011</t>
-  </si>
-  <si>
-    <t>O_012</t>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>import_animal_character.xml</t>
+  </si>
+  <si>
+    <t>import_audio.xml</t>
+  </si>
+  <si>
+    <t>import_character.xml</t>
+  </si>
+  <si>
+    <t>import_fairytale_chapter.xml</t>
+  </si>
+  <si>
+    <t>import_fairytale.xml</t>
+  </si>
+  <si>
+    <t>import_image_animal.xml</t>
+  </si>
+  <si>
+    <t>import_image_human.xml</t>
+  </si>
+  <si>
+    <t>import_image_wonderland_character.xml</t>
+  </si>
+  <si>
+    <t>import_location.xml</t>
+  </si>
+  <si>
+    <t>data/XML</t>
   </si>
 </sst>
 </file>
@@ -147,9 +174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +214,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -293,7 +320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,7 +462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,80 +470,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A71194C-0CE3-7648-8A47-430ED0FD6A57}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Originals.xlsx
+++ b/data/Spreadsheet_Data/Originals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C96A654-F430-1E4F-A9D9-D5D906EC16D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A197CEB-E131-2141-AA7D-C1A93FD84F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47360" yWindow="500" windowWidth="29360" windowHeight="17420" xr2:uid="{7BD0A2E7-6474-8D4B-AB32-BE85F237C272}"/>
+    <workbookView xWindow="21180" yWindow="500" windowWidth="51000" windowHeight="26440" xr2:uid="{7BD0A2E7-6474-8D4B-AB32-BE85F237C272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -104,6 +104,42 @@
   </si>
   <si>
     <t>data/XML</t>
+  </si>
+  <si>
+    <t>XML DSP import file for animal characters</t>
+  </si>
+  <si>
+    <t>import_originals.xml</t>
+  </si>
+  <si>
+    <t>O_010</t>
+  </si>
+  <si>
+    <t>XML DSP import file for audio files</t>
+  </si>
+  <si>
+    <t>XML DSP import file for DaSCH employees</t>
+  </si>
+  <si>
+    <t>XML DSP import file for fairytale chapters</t>
+  </si>
+  <si>
+    <t>XML DSP import file for fairytales</t>
+  </si>
+  <si>
+    <t>XML DSP import file for animal image files</t>
+  </si>
+  <si>
+    <t>XML DSP import file for human image files</t>
+  </si>
+  <si>
+    <t>XML DSP import file for wonderland characters</t>
+  </si>
+  <si>
+    <t>XML DSP import file for locations</t>
+  </si>
+  <si>
+    <t>XML DSP import file for xml import files</t>
   </si>
 </sst>
 </file>
@@ -470,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A71194C-0CE3-7648-8A47-430ED0FD6A57}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,6 +536,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -511,6 +550,9 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -522,6 +564,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -533,6 +578,9 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -544,6 +592,9 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -555,6 +606,9 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -566,6 +620,9 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -577,6 +634,9 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -588,10 +648,27 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>

--- a/data/Spreadsheet_Data/Originals.xlsx
+++ b/data/Spreadsheet_Data/Originals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A197CEB-E131-2141-AA7D-C1A93FD84F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD5B78-5ADD-EB47-86B2-E0C337CBA32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21180" yWindow="500" windowWidth="51000" windowHeight="26440" xr2:uid="{7BD0A2E7-6474-8D4B-AB32-BE85F237C272}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>import_location.xml</t>
   </si>
   <si>
-    <t>data/XML</t>
-  </si>
-  <si>
     <t>XML DSP import file for animal characters</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>XML DSP import file for xml import files</t>
+  </si>
+  <si>
+    <t>data/XML/</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -537,13 +537,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,13 +551,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -565,13 +565,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,13 +579,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,13 +593,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,13 +607,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,13 +621,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,13 +635,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,27 +649,27 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
